--- a/数据整理/stocks/A股/深证主板/002832-比音勒芬.xlsx
+++ b/数据整理/stocks/A股/深证主板/002832-比音勒芬.xlsx
@@ -451,379 +451,509 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3812</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010020</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏线上经济主题精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>59.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>61.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3072</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6012</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6012</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001927</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏消费升级灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5210</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>161609</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>融通动力先锋混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>89.54</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>3.08</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3674</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001928</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏消费升级灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1213</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005522</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年福定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>47.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>000747</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>广发逆向策略灵活配置混合</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>92.46</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>4.78</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>000432</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>中银优秀企业混合</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>89.99</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>4.04</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>270025</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发行业领先混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>90.26</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>960001</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发行业领先混合H</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>90.26</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>161030</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富国中证体育产业指数</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>92.94</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001927</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华夏消费升级灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>92.98</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001928</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华夏消费升级灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>92.98</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002624</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>广发优企精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>88.59</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>010021</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>广发优企精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>88.59</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>010020</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华夏线上经济主题精选混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>61.36</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005522</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华泰保兴吉年福定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>47.97</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -833,7 +963,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -854,15 +984,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -884,15 +1024,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>35.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.79</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.97</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7773</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -902,26 +1052,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000021</t>
+          <t>002624</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏优势增长混合</t>
+          <t>广发优企精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.27</t>
+          <t>27.92</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>86.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7701</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000432</t>
+          <t>590002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中银优秀企业混合</t>
+          <t>中邮核心成长混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>87.61</t>
+          <t>53.06</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.02</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>82.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6289</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>270008</t>
+          <t>000021</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发核心精选混合</t>
+          <t>华夏优势增长混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>90.68</t>
+          <t>69.21</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4326</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>270025</t>
+          <t>001927</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发行业领先混合A</t>
+          <t>华夏消费升级灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>86.29</t>
+          <t>15.66</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.57</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0336</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1014,25 +1204,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>960001</t>
+          <t>270025</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发行业领先混合H</t>
+          <t>广发行业领先混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>11.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>86.29</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>6.57</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7503</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000590</t>
+          <t>001224</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华安新活力灵活配置混合</t>
+          <t>中邮新思路灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>20.15</t>
+          <t>20.13</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>77.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6200</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000747</t>
+          <t>270008</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广发逆向策略灵活配置混合</t>
+          <t>广发核心精选混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>83.57</t>
+          <t>10.57</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.96</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5232</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001152</t>
+          <t>161609</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>融通新区域新经济灵活配置混合</t>
+          <t>融通动力先锋混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>87.33</t>
+          <t>9.12</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2909</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001224</t>
+          <t>001928</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中邮新思路灵活配置混合</t>
+          <t>华夏消费升级灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>77.75</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2660</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001927</t>
+          <t>161030</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华夏消费升级灵活配置混合A</t>
+          <t>富国中证体育产业指数</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>93.43</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6.60</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2156</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001928</t>
+          <t>001152</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华夏消费升级灵活配置混合C</t>
+          <t>融通新区域新经济灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>93.43</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6.60</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>4</v>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1491</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>590002</t>
+          <t>000747</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中邮核心成长混合</t>
+          <t>广发逆向策略灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>82.66</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
+          <t>83.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>161030</t>
+          <t>000590</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>富国中证体育产业指数</t>
+          <t>华安新活力灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>7.72</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>3</v>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>002271</t>
+          <t>010021</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>招商安弘灵活配置混合</t>
+          <t>广发优企精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>77.58</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
+          <t>86.55</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>161609</t>
+          <t>002271</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>融通动力先锋混合</t>
+          <t>招商安弘灵活配置混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>87.73</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>6</v>
+          <t>77.58</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>002624</t>
+          <t>000432</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>广发优企精选灵活配置混合A</t>
+          <t>中银优秀企业混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>86.55</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>6.34</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>5</v>
+          <t>87.61</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>010021</t>
+          <t>960001</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>广发优企精选灵活配置混合C</t>
+          <t>广发行业领先混合H</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>86.55</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>6.34</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>5</v>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002832-比音勒芬.xlsx
+++ b/数据整理/stocks/A股/深证主板/002832-比音勒芬.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1695,4 +1696,1466 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009951</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>50.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5587</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010020</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏线上经济主题精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2162</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1740</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000021</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏优势增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>75.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7905</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001927</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏消费升级灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1513</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0363</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9369</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8565</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7637</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5549</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>270008</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发核心精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4720</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3796</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001928</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏消费升级灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3475</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009952</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>50.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3136</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161609</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>融通动力先锋混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2708</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006385</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.81</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1368</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1357</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001152</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>融通新区域新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1277</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005522</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年福定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>32.82</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008420</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发招泰混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>21.33</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010060</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005599</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005169</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>75.97</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002622</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发稳裕混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>21.30</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008421</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发招泰混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>21.33</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006386</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.81</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005170</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>75.97</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000432</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中银优秀企业混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>84.10</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>350006</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>天治稳健双盈债券</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>23.12</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>350008</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>天治新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.86</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010061</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006538</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>东海核心价值精选混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005600</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002832-比音勒芬.xlsx
+++ b/数据整理/stocks/A股/深证主板/002832-比音勒芬.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3158,4 +3159,1770 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009951</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>55.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5474</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0010</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010020</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏线上经济主题精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8713</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000021</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏优势增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>71.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7839</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1083</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0612</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011866</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>32.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>59.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9927</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001927</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏消费升级灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9922</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9845</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9330</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161609</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>融通动力先锋混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6453</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.40</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4846</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.52</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4388</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4215</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009952</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>55.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3868</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3474</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>270008</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发核心精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3402</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>52.14</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3314</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001928</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏消费升级灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3076</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001152</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>融通新区域新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2698</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1841</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006243</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银双息回报混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>61.50</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1560</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010692</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1342</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006385</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.58</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1041</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004995</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005522</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年福定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>32.52</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008420</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发招泰混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>080001</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>67.97</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011867</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>59.63</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010693</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005169</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>82.66</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004549</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富安达消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010245</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>10.02</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005170</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>82.66</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008421</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发招泰混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>350008</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>天治新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>71.80</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006386</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>81.58</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001474</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>兴银丰盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002832-比音勒芬.xlsx
+++ b/数据整理/stocks/A股/深证主板/002832-比音勒芬.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4925,4 +4926,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>45</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19.54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>37</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002832-比音勒芬.xlsx
+++ b/数据整理/stocks/A股/深证主板/002832-比音勒芬.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4934,7 +4935,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4945,17 +4946,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4965,14 +4986,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>45</v>
-      </c>
-      <c r="D2" t="n">
-        <v>19.54</v>
+          <t>009951</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>148.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>55.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.4419</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -4981,14 +5024,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>37</v>
-      </c>
-      <c r="D3" t="n">
-        <v>16.67</v>
+          <t>009345</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银顺兴回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>112.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>51.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2101</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -4997,14 +5062,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.61</v>
+          <t>011866</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0916</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -5013,13 +5100,1747 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010020</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏线上经济主题精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8667</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2375</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2249</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1431</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0724</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011282</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0631</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9319</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6771</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.64</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5703</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001927</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏消费升级灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5035</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161609</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>融通动力先锋混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4696</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4597</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>14.69</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.78</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4378</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3886</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009952</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.79</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>55.45</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3525</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.90</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>53.61</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3315</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001928</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏消费升级灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2936</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010692</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2415</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001152</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>融通新区域新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1888</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009346</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中银顺兴回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>51.97</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1751</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006243</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银双息回报混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>72.65</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1297</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1197</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006385</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1012</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005409</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>79.33</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>512770</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏战略新兴成指ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.10</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011867</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005522</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年福定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>29.48</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>080001</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>62.92</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010693</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010060</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006165</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005169</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>82.68</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010032</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>79.33</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005170</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>82.68</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010061</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006166</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006386</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>013442</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强E</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>46</v>
+      </c>
+      <c r="D2" t="n">
+        <v>23.44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>45</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>37</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.61</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>12</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>5.16</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002832-比音勒芬.xlsx
+++ b/数据整理/stocks/A股/深证主板/002832-比音勒芬.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6739,7 +6740,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6750,17 +6751,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6770,14 +6791,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>46</v>
-      </c>
-      <c r="D2" t="n">
-        <v>23.44</v>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2522</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -6786,14 +6829,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>45</v>
-      </c>
-      <c r="D3" t="n">
-        <v>19.54</v>
+          <t>009951</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>70.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>43.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1333</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -6802,14 +6867,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>37</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16.67</v>
+          <t>010020</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏线上经济主题精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4904</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -6818,14 +6905,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>18</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10.61</v>
+          <t>011866</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3942</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -6834,13 +6943,2065 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2826</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1955</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011282</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0739</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001927</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏消费升级灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8912</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8699</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8699</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7235</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160527</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>95.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7082</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5290</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>23.30</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>59.08</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5289</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4802</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4179</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4057</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3589</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009952</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>43.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3482</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009345</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中银顺兴回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>14.84</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>35.50</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3294</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>270008</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发核心精选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3151</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>62.69</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2856</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>50.14</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2838</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>161609</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>融通动力先锋混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>80.93</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2727</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011911</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏消费优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2463</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001928</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏消费升级灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2452</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2245</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010738</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1959</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009346</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中银顺兴回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>35.50</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1610</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010692</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1609</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005409</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1550</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011748</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006243</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中银双息回报混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>59.42</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1204</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001152</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>融通新区域新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>80.98</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1079</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006385</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011283</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏消费龙头混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011867</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>080001</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>60.74</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010693</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>003848</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中银广利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>23.61</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010032</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>160528</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>95.51</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005169</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011912</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华夏消费优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005170</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011749</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010739</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006386</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>003849</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中银广利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>23.61</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004005</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>东方民丰回报赢安混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>28.31</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>004006</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>东方民丰回报赢安混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>28.31</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>55</v>
+      </c>
+      <c r="D2" t="n">
+        <v>21.88</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>46</v>
+      </c>
+      <c r="D3" t="n">
+        <v>23.44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>45</v>
+      </c>
+      <c r="D4" t="n">
+        <v>19.54</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>37</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16.67</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>18</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.61</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>12</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>5.16</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002832-比音勒芬.xlsx
+++ b/数据整理/stocks/A股/深证主板/002832-比音勒芬.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8884,7 +8885,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8895,17 +8896,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8915,14 +8936,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>55</v>
-      </c>
-      <c r="D2" t="n">
-        <v>21.88</v>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7030</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -8931,14 +8974,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>46</v>
-      </c>
-      <c r="D3" t="n">
-        <v>23.44</v>
+          <t>009951</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>58.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>46.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7073</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -8947,14 +9012,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>45</v>
-      </c>
-      <c r="D4" t="n">
-        <v>19.54</v>
+          <t>010020</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏线上经济主题精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5914</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -8963,14 +9050,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>37</v>
-      </c>
-      <c r="D5" t="n">
-        <v>16.67</v>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4400</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -8979,14 +9088,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>18</v>
-      </c>
-      <c r="D6" t="n">
-        <v>10.61</v>
+          <t>011866</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4198</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -8995,13 +9126,2041 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2362</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011282</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1451</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001927</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏消费升级灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9232</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8868</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8868</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.99</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7710</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5853</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5645</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5514</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4566</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>19.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>59.92</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4051</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000190</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>34.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>21.82</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3645</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009345</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中银顺兴回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.47</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>53.76</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3516</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3472</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>270008</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发核心精选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3432</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009952</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.05</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>46.28</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3227</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>161609</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>融通动力先锋混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2907</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005449</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2688</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011911</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏消费优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2621</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001928</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏消费升级灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2483</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001045</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>18.93</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>37.65</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2328</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001046</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券I</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>18.93</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>37.65</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2328</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>53.33</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2272</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1781</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009346</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中银顺兴回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>53.76</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1716</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011936</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏阿尔法精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1437</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010692</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1331</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001152</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>融通新区域新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1148</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000572</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中银多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011283</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏消费龙头混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011867</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010693</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003848</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中银广利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>22.60</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011912</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华夏消费优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013278</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011937</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华夏阿尔法精选混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010167</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中银多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>012887</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>37.65</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002952</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>建信多因子量化股票</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006231</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011758</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010172</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中银新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>21.82</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>003849</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中银广利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>22.60</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006232</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>55</v>
+      </c>
+      <c r="D2" t="n">
+        <v>22.17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>55</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21.88</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>46</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23.44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>45</v>
+      </c>
+      <c r="D5" t="n">
+        <v>19.54</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>37</v>
+      </c>
+      <c r="D6" t="n">
+        <v>16.67</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>18</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.61</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>12</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>5.16</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002832-比音勒芬.xlsx
+++ b/数据整理/stocks/A股/深证主板/002832-比音勒芬.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D2" t="n">
-        <v>22.17</v>
+        <v>22.23</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>55</v>
       </c>
       <c r="D3" t="n">
-        <v>21.88</v>
+        <v>22.17</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D4" t="n">
-        <v>23.44</v>
+        <v>21.88</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5" t="n">
-        <v>19.54</v>
+        <v>23.44</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D6" t="n">
-        <v>16.67</v>
+        <v>19.54</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D7" t="n">
-        <v>10.61</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>18</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10.61</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>12</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>5.16</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -666,26 +683,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>34.61</t>
+          <t>36.92</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.62</t>
+          <t>92.54</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.81</t>
+          <t>7.07</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.7030</t>
+          <t>2.6102</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -694,36 +711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009951</t>
+          <t>270002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发稳健回报混合A</t>
+          <t>广发稳健增长混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>58.47</t>
+          <t>160.46</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>46.28</t>
+          <t>38.78</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.7073</t>
+          <t>2.5032</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -732,36 +749,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010020</t>
+          <t>020001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏线上经济主题精选混合</t>
+          <t>国泰金鹰增长灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>18.57</t>
+          <t>20.78</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>85.47</t>
+          <t>94.53</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.57</t>
+          <t>8.59</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.5914</t>
+          <t>1.7850</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -770,36 +787,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>020001</t>
+          <t>009951</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰金鹰增长灵活配置混合</t>
+          <t>广发稳健回报混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>18.75</t>
+          <t>52.44</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>46.49</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.68</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.4400</t>
+          <t>1.4893</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -808,36 +825,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011866</t>
+          <t>010020</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发价值增长混合型证券投资基金A</t>
+          <t>华夏线上经济主题精选混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>18.32</t>
+          <t>15.58</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.77</t>
+          <t>85.53</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.75</t>
+          <t>8.92</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.4198</t>
+          <t>1.3897</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -846,36 +863,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002624</t>
+          <t>011866</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发优企精选灵活配置混合A</t>
+          <t>广发价值增长混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>13.57</t>
+          <t>15.73</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.53</t>
+          <t>94.64</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9.11</t>
+          <t>7.51</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.2362</t>
+          <t>1.1813</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -884,36 +901,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011282</t>
+          <t>009804</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华夏消费龙头混合A</t>
+          <t>国泰研究优势混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>18.68</t>
+          <t>12.23</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>87.66</t>
+          <t>92.87</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.13</t>
+          <t>8.55</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.1451</t>
+          <t>1.0457</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -922,36 +939,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001927</t>
+          <t>002624</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华夏消费升级灵活配置混合A</t>
+          <t>广发优企精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>11.19</t>
+          <t>11.48</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>88.80</t>
+          <t>94.33</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>8.25</t>
+          <t>8.92</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.9232</t>
+          <t>1.0240</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -960,36 +977,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>270025</t>
+          <t>011282</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>广发行业领先混合A</t>
+          <t>华夏消费龙头混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>11.34</t>
+          <t>14.12</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.28</t>
+          <t>86.27</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>7.82</t>
+          <t>6.51</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.8868</t>
+          <t>0.9192</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -998,32 +1015,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>960001</t>
+          <t>270025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>广发行业领先混合H</t>
+          <t>广发行业领先混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>11.34</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.28</t>
+          <t>94.64</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>7.82</t>
+          <t>7.68</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.8868</t>
+          <t>0.7642</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1046,26 +1063,26 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>18.99</t>
+          <t>12.30</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>95.11</t>
+          <t>97.80</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>5.48</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.7710</t>
+          <t>0.6740</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1074,36 +1091,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009804</t>
+          <t>519033</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国泰研究优势混合</t>
+          <t>海富通国策导向混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>8.22</t>
+          <t>15.04</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>91.20</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>7.12</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.5853</t>
+          <t>0.6076</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1112,36 +1129,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001044</t>
+          <t>001927</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>嘉实新消费股票</t>
+          <t>华夏消费升级灵活配置混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>10.61</t>
+          <t>6.80</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>85.44</t>
+          <t>88.06</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>8.60</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.5645</t>
+          <t>0.5848</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1150,36 +1167,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>160212</t>
+          <t>001044</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>国泰估值优势混合 (LOF)</t>
+          <t>嘉实新消费股票</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>9.76</t>
+          <t>9.52</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>89.91</t>
+          <t>82.84</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.5514</t>
+          <t>0.4931</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1198,26 +1215,26 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>6.01</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>92.80</t>
+          <t>93.77</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>7.61</t>
+          <t>7.85</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.4566</t>
+          <t>0.4718</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -1226,36 +1243,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>004848</t>
+          <t>000457</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中欧睿泓定期开放灵活配置混合</t>
+          <t>上投摩根核心成长A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>19.02</t>
+          <t>9.60</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>59.92</t>
+          <t>90.82</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.4051</t>
+          <t>0.3782</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1264,36 +1281,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>000190</t>
+          <t>288002</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中银新回报灵活配置混合A</t>
+          <t>华夏收入混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>34.07</t>
+          <t>21.12</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>21.82</t>
+          <t>82.32</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.3645</t>
+          <t>0.3696</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1302,36 +1319,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>009345</t>
+          <t>004848</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中银顺兴回报一年持有期混合A</t>
+          <t>中欧睿泓定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>14.47</t>
+          <t>17.10</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>53.76</t>
+          <t>59.07</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.3516</t>
+          <t>0.3540</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1350,26 +1367,26 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>94.14</t>
+          <t>93.29</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.3472</t>
+          <t>0.2965</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1388,22 +1405,22 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>8.31</t>
+          <t>7.11</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>94.60</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.3432</t>
+          <t>0.2872</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -1426,26 +1443,26 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>11.05</t>
+          <t>9.48</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>46.28</t>
+          <t>46.49</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.3227</t>
+          <t>0.2692</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1454,36 +1471,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>161609</t>
+          <t>005449</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>融通动力先锋混合</t>
+          <t>华夏行业龙头混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>7.65</t>
+          <t>7.51</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>90.33</t>
+          <t>89.35</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.2907</t>
+          <t>0.2343</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -1492,36 +1509,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>005449</t>
+          <t>011321</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>华夏行业龙头混合</t>
+          <t>国泰大健康股票C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>8.87</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>88.53</t>
+          <t>92.54</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>7.07</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.2688</t>
+          <t>0.2262</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -1530,36 +1547,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>011911</t>
+          <t>001928</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>华夏消费优选混合型证券投资基金A</t>
+          <t>华夏消费升级灵活配置混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>8.09</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>91.57</t>
+          <t>88.06</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>8.60</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.2621</t>
+          <t>0.2219</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1568,22 +1585,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>001928</t>
+          <t>011427</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>华夏消费升级灵活配置混合C</t>
+          <t>广发价值驱动混合A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>88.80</t>
+          <t>94.69</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1593,11 +1610,11 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.2483</t>
+          <t>0.2178</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -1606,36 +1623,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>001045</t>
+          <t>011911</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>华夏可转债增强债券A</t>
+          <t>华夏消费优选混合A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>18.93</t>
+          <t>6.37</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>37.65</t>
+          <t>87.94</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.2328</t>
+          <t>0.2147</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -1654,26 +1671,26 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>18.93</t>
+          <t>14.65</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>37.65</t>
+          <t>37.90</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.2328</t>
+          <t>0.2022</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -1692,22 +1709,22 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>7.40</t>
+          <t>6.62</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>53.33</t>
+          <t>51.01</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.2272</t>
+          <t>0.1979</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -1720,36 +1737,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>011321</t>
+          <t>011936</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>国泰大健康股票C</t>
+          <t>华夏阿尔法精选混合A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>94.62</t>
+          <t>90.56</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>7.81</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.1781</t>
+          <t>0.1249</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -1758,36 +1775,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>009346</t>
+          <t>010692</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>中银顺兴回报一年持有期混合C</t>
+          <t>华夏核心价值混合A</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>7.06</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>53.76</t>
+          <t>89.93</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.1716</t>
+          <t>0.1155</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -1796,36 +1813,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>011936</t>
+          <t>006385</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>华夏阿尔法精选混合型证券投资基金A</t>
+          <t>华泰保兴研究智选灵活配置混合A</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>89.37</t>
+          <t>80.76</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.1437</t>
+          <t>0.0876</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -1834,36 +1851,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>010692</t>
+          <t>013109</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>华夏核心价值混合A</t>
+          <t>华夏优势价值一年持有混合A</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>89.73</t>
+          <t>67.65</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>6.05</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.1331</t>
+          <t>0.0868</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -1872,36 +1889,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>001152</t>
+          <t>011283</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>融通新区域新经济灵活配置混合</t>
+          <t>华夏消费龙头混合C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>90.06</t>
+          <t>86.27</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>6.51</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.1148</t>
+          <t>0.0814</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -1910,36 +1927,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>000572</t>
+          <t>009345</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>中银多策略灵活配置混合A</t>
+          <t>中银顺兴回报一年持有期混合A</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>11.11</t>
+          <t>6.67</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>20.92</t>
+          <t>49.82</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.1000</t>
+          <t>0.0787</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
@@ -1953,27 +1970,27 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>广发逆向策略灵活配置混合</t>
+          <t>广发逆向策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>94.25</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>7.91</t>
+          <t>7.82</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.0925</t>
+          <t>0.0782</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -1986,36 +2003,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>011283</t>
+          <t>009346</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>华夏消费龙头混合C</t>
+          <t>中银顺兴回报一年持有期混合C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>6.28</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>87.66</t>
+          <t>49.82</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>6.13</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.0889</t>
+          <t>0.0741</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -2024,36 +2041,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>161030</t>
+          <t>014126</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>富国中证体育产业指数</t>
+          <t>华夏中证1000指数增强C</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>8.78</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>89.62</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.0775</t>
+          <t>0.0694</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -2062,36 +2079,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>519991</t>
+          <t>161030</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>长信双利优选混合A</t>
+          <t>富国中证体育产业指数A</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>93.54</t>
+          <t>94.00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.0711</t>
+          <t>0.0650</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
@@ -2100,32 +2117,32 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>011867</t>
+          <t>519991</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>广发价值增长混合型证券投资基金C</t>
+          <t>长信双利优选混合A</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>94.77</t>
+          <t>91.61</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>7.75</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.0666</t>
+          <t>0.0620</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -2138,36 +2155,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>010693</t>
+          <t>011867</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>华夏核心价值混合C</t>
+          <t>广发价值增长混合C</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>89.73</t>
+          <t>94.64</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>6.05</t>
+          <t>7.51</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.0387</t>
+          <t>0.0541</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -2176,36 +2193,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>003848</t>
+          <t>009326</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>中银广利灵活配置混合A</t>
+          <t>广发稳健增长混合C</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>5.44</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>22.60</t>
+          <t>38.78</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0.0337</t>
+          <t>0.0359</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43">
@@ -2214,36 +2231,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>007903</t>
+          <t>011428</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>长城量化小盘股票</t>
+          <t>广发价值驱动混合C</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>92.43</t>
+          <t>94.69</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>8.25</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.0180</t>
+          <t>0.0346</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -2252,12 +2269,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>011912</t>
+          <t>010693</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>华夏消费优选混合型证券投资基金C</t>
+          <t>华夏核心价值混合C</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2267,21 +2284,21 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>91.57</t>
+          <t>89.93</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0.0175</t>
+          <t>0.0341</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -2290,36 +2307,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>013278</t>
+          <t>005170</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>富国中证体育产业指数C</t>
+          <t>华泰保兴策略精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>81.72</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.0158</t>
+          <t>0.0178</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -2328,36 +2345,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>010021</t>
+          <t>013278</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>广发优企精选灵活配置混合C</t>
+          <t>富国中证体育产业指数C</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>94.53</t>
+          <t>94.00</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>9.11</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0.0146</t>
+          <t>0.0172</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
@@ -2366,36 +2383,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>011937</t>
+          <t>012887</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>华夏阿尔法精选混合C</t>
+          <t>华夏可转债增强债券C</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>89.37</t>
+          <t>37.90</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.0077</t>
+          <t>0.0171</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
@@ -2404,36 +2421,36 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>010167</t>
+          <t>011912</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>中银多策略灵活配置混合C</t>
+          <t>华夏消费优选混合C</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>20.92</t>
+          <t>87.94</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0.0066</t>
+          <t>0.0148</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49">
@@ -2442,36 +2459,36 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>012887</t>
+          <t>007142</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>华夏可转债增强债券C</t>
+          <t>嘉合稳健增长灵活配置混合C</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>37.65</t>
+          <t>85.87</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0.0048</t>
+          <t>0.0118</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50">
@@ -2480,36 +2497,36 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>002952</t>
+          <t>013110</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>建信多因子量化股票</t>
+          <t>华夏优势价值一年持有混合C</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>93.23</t>
+          <t>67.65</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0.0031</t>
+          <t>0.0097</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -2518,36 +2535,36 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>006231</t>
+          <t>007141</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>国融融君灵活配置混合A</t>
+          <t>嘉合稳健增长灵活配置混合A</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>78.30</t>
+          <t>85.87</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0.0016</t>
+          <t>0.0080</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52">
@@ -2556,36 +2573,36 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>011758</t>
+          <t>014125</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>广发逆向策略灵活配置混合C</t>
+          <t>华夏中证1000指数增强A</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>89.62</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>7.91</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0.0016</t>
+          <t>0.0077</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
@@ -2594,36 +2611,36 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>010172</t>
+          <t>011937</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>中银新回报灵活配置混合C</t>
+          <t>华夏阿尔法精选混合C</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>21.82</t>
+          <t>90.56</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0.0006</t>
+          <t>0.0071</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
@@ -2632,36 +2649,36 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>003849</t>
+          <t>005169</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>中银广利灵活配置混合C</t>
+          <t>华泰保兴策略精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>22.60</t>
+          <t>81.72</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0.0006</t>
+          <t>0.0066</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
@@ -2670,34 +2687,36 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>006396</t>
+          <t>010021</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>长信双利优选混合E</t>
+          <t>广发优企精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>93.54</t>
+          <t>94.33</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2706,33 +2725,295 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>006232</t>
+          <t>006279</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>国融融君灵活配置混合C</t>
+          <t>中金瑞祥灵活配置混合A</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>70.27</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011758</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006386</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>80.76</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>015170</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>78.30</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="G56" t="n">
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
         <v>0</v>
       </c>
-      <c r="H56" t="n">
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001045</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>37.90</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006280</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>70.27</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2808,22 +3089,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>34.81</t>
+          <t>34.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.83</t>
+          <t>94.62</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>7.81</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.2522</t>
+          <t>2.7030</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2846,26 +3127,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>70.64</t>
+          <t>58.47</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>43.16</t>
+          <t>46.28</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.1333</t>
+          <t>1.7073</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2884,22 +3165,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16.45</t>
+          <t>18.57</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>84.47</t>
+          <t>85.47</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.06</t>
+          <t>8.57</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.4904</t>
+          <t>1.5914</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2912,36 +3193,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011866</t>
+          <t>020001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发价值增长混合型证券投资基金A</t>
+          <t>国泰金鹰增长灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>18.06</t>
+          <t>18.75</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.01</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.72</t>
+          <t>7.68</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.3942</t>
+          <t>1.4400</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2950,36 +3231,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>020001</t>
+          <t>011866</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰金鹰增长灵活配置混合</t>
+          <t>广发价值增长混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>17.38</t>
+          <t>18.32</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.77</t>
+          <t>94.77</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.38</t>
+          <t>7.75</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.2826</t>
+          <t>1.4198</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -2998,26 +3279,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12.98</t>
+          <t>13.57</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.40</t>
+          <t>94.53</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9.21</t>
+          <t>9.11</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.1955</t>
+          <t>1.2362</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -3036,26 +3317,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>16.37</t>
+          <t>18.68</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>87.73</t>
+          <t>87.66</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.56</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.0739</t>
+          <t>1.1451</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -3074,22 +3355,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9.74</t>
+          <t>11.19</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>88.80</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>9.15</t>
+          <t>8.25</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.8912</t>
+          <t>0.9232</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -3112,22 +3393,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>11.11</t>
+          <t>11.34</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>91.67</t>
+          <t>94.28</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>7.83</t>
+          <t>7.82</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.8699</t>
+          <t>0.8868</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -3150,22 +3431,22 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>11.11</t>
+          <t>11.34</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>91.67</t>
+          <t>94.28</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>7.83</t>
+          <t>7.82</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.8699</t>
+          <t>0.8868</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -3188,12 +3469,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>17.82</t>
+          <t>18.99</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>98.74</t>
+          <t>95.11</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -3203,11 +3484,11 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.7235</t>
+          <t>0.7710</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -3216,36 +3497,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>160527</t>
+          <t>009804</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+          <t>国泰研究优势混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>20.12</t>
+          <t>8.22</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>95.51</t>
+          <t>94.49</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>7.12</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.7082</t>
+          <t>0.5853</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -3264,26 +3545,26 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>8.92</t>
+          <t>10.61</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>80.25</t>
+          <t>85.44</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>5.32</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.5290</t>
+          <t>0.5645</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -3292,36 +3573,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>004848</t>
+          <t>160212</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中欧睿泓定期开放灵活配置混合</t>
+          <t>国泰估值优势混合 (LOF)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>23.30</t>
+          <t>9.76</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>59.08</t>
+          <t>89.91</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.5289</t>
+          <t>0.5514</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -3340,26 +3621,26 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>6.36</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>92.86</t>
+          <t>92.80</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>7.55</t>
+          <t>7.61</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.4802</t>
+          <t>0.4566</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -3368,36 +3649,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>008370</t>
+          <t>004848</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>国泰研究精选两年持有期混合</t>
+          <t>中欧睿泓定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>19.02</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>92.87</t>
+          <t>59.92</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>10.07</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.4179</t>
+          <t>0.4051</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -3406,36 +3687,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>000457</t>
+          <t>000190</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>上投摩根核心成长</t>
+          <t>中银新回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>12.84</t>
+          <t>34.07</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>87.63</t>
+          <t>21.82</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.4057</t>
+          <t>0.3645</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -3444,36 +3725,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>009804</t>
+          <t>009345</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>国泰研究优势混合</t>
+          <t>中银顺兴回报一年持有期混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>14.47</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>90.91</t>
+          <t>53.76</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>8.67</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.3589</t>
+          <t>0.3516</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -3482,36 +3763,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>009952</t>
+          <t>008370</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>广发稳健回报混合C</t>
+          <t>国泰研究精选两年持有期混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>11.53</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>43.16</t>
+          <t>94.14</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>9.09</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.3482</t>
+          <t>0.3472</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -3520,36 +3801,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>009345</t>
+          <t>270008</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中银顺兴回报一年持有期混合A</t>
+          <t>广发核心精选混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>14.84</t>
+          <t>8.31</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>35.50</t>
+          <t>94.61</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.3294</t>
+          <t>0.3432</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -3558,36 +3839,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>270008</t>
+          <t>009952</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>广发核心精选混合</t>
+          <t>广发稳健回报混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>8.08</t>
+          <t>11.05</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>93.75</t>
+          <t>46.28</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.3151</t>
+          <t>0.3227</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -3596,36 +3877,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>160212</t>
+          <t>161609</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>国泰估值优势混合 (LOF)</t>
+          <t>融通动力先锋混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>8.98</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>62.69</t>
+          <t>90.33</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.2856</t>
+          <t>0.2907</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -3634,36 +3915,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>501070</t>
+          <t>005449</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>广发睿阳三年定期开放混合</t>
+          <t>华夏行业龙头混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>7.06</t>
+          <t>8.87</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>50.14</t>
+          <t>88.53</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.2838</t>
+          <t>0.2688</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -3672,36 +3953,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>161609</t>
+          <t>011911</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>融通动力先锋混合</t>
+          <t>华夏消费优选混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>7.12</t>
+          <t>8.09</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>80.93</t>
+          <t>91.57</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.2727</t>
+          <t>0.2621</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -3710,36 +3991,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>011911</t>
+          <t>001928</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>华夏消费优选混合型证券投资基金A</t>
+          <t>华夏消费升级灵活配置混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>7.18</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>82.18</t>
+          <t>88.80</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>8.25</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.2463</t>
+          <t>0.2483</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -3748,36 +4029,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>001928</t>
+          <t>001045</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>华夏消费升级灵活配置混合C</t>
+          <t>华夏可转债增强债券A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>18.93</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>37.65</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>9.15</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.2452</t>
+          <t>0.2328</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -3786,36 +4067,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>011321</t>
+          <t>001046</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>国泰大健康股票C</t>
+          <t>华夏可转债增强债券I</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>18.93</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>90.83</t>
+          <t>37.65</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.2245</t>
+          <t>0.2328</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -3824,36 +4105,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>010738</t>
+          <t>501070</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>大成优选升级一年持有期混合A</t>
+          <t>广发睿阳三年定期开放混合</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>7.40</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>89.02</t>
+          <t>53.33</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>5.17</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.1959</t>
+          <t>0.2272</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -3862,36 +4143,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>009346</t>
+          <t>011321</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>中银顺兴回报一年持有期混合C</t>
+          <t>国泰大健康股票C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>7.25</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>35.50</t>
+          <t>94.62</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>7.81</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.1610</t>
+          <t>0.1781</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -3900,36 +4181,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>010692</t>
+          <t>009346</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>华夏核心价值混合A</t>
+          <t>中银顺兴回报一年持有期混合C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>7.06</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>87.86</t>
+          <t>53.76</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>6.46</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.1609</t>
+          <t>0.1716</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -3938,36 +4219,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>005409</t>
+          <t>011936</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>华泰柏瑞战略新兴产业混合A</t>
+          <t>华夏阿尔法精选混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>89.63</t>
+          <t>89.37</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.1550</t>
+          <t>0.1437</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -3976,36 +4257,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>011748</t>
+          <t>010692</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>华泰柏瑞景气成长混合A</t>
+          <t>华夏核心价值混合A</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>89.73</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>6.05</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.1336</t>
+          <t>0.1331</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
@@ -4014,32 +4295,32 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>006243</t>
+          <t>001152</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>中银双息回报混合</t>
+          <t>融通新区域新经济灵活配置混合</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>59.42</t>
+          <t>90.06</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.1204</t>
+          <t>0.1148</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -4052,36 +4333,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>001152</t>
+          <t>000572</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>融通新区域新经济灵活配置混合</t>
+          <t>中银多策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>11.11</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>80.98</t>
+          <t>20.92</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.1079</t>
+          <t>0.1000</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -4090,32 +4371,32 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>006385</t>
+          <t>000747</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>华泰保兴研究智选灵活配置混合A</t>
+          <t>广发逆向策略灵活配置混合</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>83.65</t>
+          <t>94.65</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>7.91</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.1019</t>
+          <t>0.0925</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -4128,36 +4409,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>000747</t>
+          <t>011283</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>广发逆向策略灵活配置混合</t>
+          <t>华夏消费龙头混合C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>89.61</t>
+          <t>87.66</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>7.63</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.0954</t>
+          <t>0.0889</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -4166,36 +4447,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>011283</t>
+          <t>161030</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>华夏消费龙头混合C</t>
+          <t>富国中证体育产业指数</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>87.73</t>
+          <t>94.26</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>6.56</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.0820</t>
+          <t>0.0775</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
@@ -4204,36 +4485,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>011867</t>
+          <t>519991</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>广发价值增长混合型证券投资基金C</t>
+          <t>长信双利优选混合A</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>92.01</t>
+          <t>93.54</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>7.72</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.0625</t>
+          <t>0.0711</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -4242,36 +4523,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>519991</t>
+          <t>011867</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>长信双利优选混合A</t>
+          <t>广发价值增长混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>90.73</t>
+          <t>94.77</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>7.75</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.0582</t>
+          <t>0.0666</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -4280,36 +4561,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>006396</t>
+          <t>010693</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>长信双利优选混合E</t>
+          <t>华夏核心价值混合C</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>90.73</t>
+          <t>89.73</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>6.05</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.0582</t>
+          <t>0.0387</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
@@ -4318,36 +4599,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>080001</t>
+          <t>003848</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>长盛成长价值混合</t>
+          <t>中银广利灵活配置混合A</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>60.74</t>
+          <t>22.60</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0.0410</t>
+          <t>0.0337</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
@@ -4356,36 +4637,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>010693</t>
+          <t>007903</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>华夏核心价值混合C</t>
+          <t>长城量化小盘股票</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>87.86</t>
+          <t>92.43</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>6.46</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.0362</t>
+          <t>0.0180</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44">
@@ -4394,36 +4675,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>003848</t>
+          <t>011912</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>中银广利灵活配置混合A</t>
+          <t>华夏消费优选混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>5.36</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>23.61</t>
+          <t>91.57</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0.0316</t>
+          <t>0.0175</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45">
@@ -4432,36 +4713,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>010032</t>
+          <t>013278</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>华泰柏瑞战略新兴产业混合C</t>
+          <t>富国中证体育产业指数C</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>89.63</t>
+          <t>94.26</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.0271</t>
+          <t>0.0158</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46">
@@ -4470,36 +4751,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>160528</t>
+          <t>010021</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+          <t>广发优企精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>95.51</t>
+          <t>94.53</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>9.11</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0.0243</t>
+          <t>0.0146</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -4508,36 +4789,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>005169</t>
+          <t>011937</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>华泰保兴策略精选灵活配置混合A</t>
+          <t>华夏阿尔法精选混合C</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>84.18</t>
+          <t>89.37</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.0176</t>
+          <t>0.0077</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
@@ -4546,36 +4827,36 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>011912</t>
+          <t>010167</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>华夏消费优选混合型证券投资基金C</t>
+          <t>中银多策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>82.18</t>
+          <t>20.92</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0.0151</t>
+          <t>0.0066</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
@@ -4584,36 +4865,36 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>010021</t>
+          <t>012887</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>广发优企精选灵活配置混合C</t>
+          <t>华夏可转债增强债券C</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>92.40</t>
+          <t>37.65</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>9.21</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0.0138</t>
+          <t>0.0048</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50">
@@ -4622,36 +4903,36 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>005170</t>
+          <t>002952</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>华泰保兴策略精选灵活配置混合C</t>
+          <t>建信多因子量化股票</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>84.18</t>
+          <t>93.23</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0.0107</t>
+          <t>0.0031</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
@@ -4660,36 +4941,36 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>011749</t>
+          <t>006231</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>华泰柏瑞景气成长混合C</t>
+          <t>国融融君灵活配置混合A</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>78.30</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0.0050</t>
+          <t>0.0016</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52">
@@ -4698,36 +4979,36 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>010739</t>
+          <t>011758</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>大成优选升级一年持有期混合C</t>
+          <t>广发逆向策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>89.02</t>
+          <t>94.65</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>5.17</t>
+          <t>7.91</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0.0047</t>
+          <t>0.0016</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53">
@@ -4736,36 +5017,36 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>006386</t>
+          <t>010172</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>华泰保兴研究智选灵活配置混合C</t>
+          <t>中银新回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>83.65</t>
+          <t>21.82</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0.0009</t>
+          <t>0.0006</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
@@ -4784,26 +5065,26 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>23.61</t>
+          <t>22.60</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0.0008</t>
+          <t>0.0006</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
@@ -4812,36 +5093,34 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>004005</t>
+          <t>006396</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>东方民丰回报赢安混合A</t>
+          <t>长信双利优选混合E</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>28.31</t>
+          <t>93.54</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
@@ -4850,12 +5129,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>004006</t>
+          <t>006232</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>东方民丰回报赢安混合C</t>
+          <t>国融融君灵活配置混合C</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -4865,19 +5144,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>28.31</t>
+          <t>78.30</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="G56" t="n">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -4886,6 +5165,2150 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2522</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009951</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>70.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>43.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1333</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010020</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏线上经济主题精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4904</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011866</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3942</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2826</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1955</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011282</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0739</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001927</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏消费升级灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8912</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8699</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8699</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7235</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160527</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>95.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7082</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5290</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>23.30</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>59.08</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5289</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4802</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4179</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4057</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3589</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009952</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>43.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3482</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009345</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中银顺兴回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>14.84</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>35.50</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3294</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>270008</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发核心精选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3151</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>62.69</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2856</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>50.14</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2838</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>161609</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>融通动力先锋混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>80.93</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2727</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011911</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏消费优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2463</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001928</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏消费升级灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2452</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2245</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010738</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1959</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009346</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中银顺兴回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>35.50</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1610</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010692</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1609</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005409</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1550</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011748</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006243</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中银双息回报混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>59.42</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1204</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001152</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>融通新区域新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>80.98</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1079</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006385</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011283</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏消费龙头混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011867</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>080001</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>60.74</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010693</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>003848</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中银广利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>23.61</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010032</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>160528</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>95.51</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005169</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011912</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华夏消费优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005170</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011749</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010739</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006386</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>003849</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中银广利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>23.61</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004005</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>东方民丰回报赢安混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>28.31</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>004006</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>东方民丰回报赢安混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>28.31</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6689,7 +9112,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8455,7 +10878,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9917,7 +12340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10657,7 +13080,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
